--- a/kowake.no-master.xlsx
+++ b/kowake.no-master.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gobli\Documents\GitHub\kowake\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1816BE-A1B5-43CF-82B1-1AE834D5ED8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="630" windowWidth="25065" windowHeight="13155"/>
+    <workbookView xWindow="2790" yWindow="2460" windowWidth="24945" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原紙" sheetId="2" r:id="rId1"/>
@@ -12,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">原紙!$F$1:$BE$25</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -399,12 +418,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode=".##"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1154,110 +1173,161 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1269,123 +1339,57 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1434,13 +1438,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1478,7 +1490,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1512,6 +1524,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1546,9 +1559,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1721,14 +1735,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3:W3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="4" width="0" hidden="1" customWidth="1"/>
     <col min="5" max="30" width="2.625" customWidth="1"/>
@@ -1736,14 +1750,17 @@
     <col min="32" max="36" width="2.625" customWidth="1"/>
     <col min="37" max="37" width="3.375" customWidth="1"/>
     <col min="38" max="40" width="3.125" customWidth="1"/>
-    <col min="41" max="48" width="2.625" customWidth="1"/>
-    <col min="49" max="54" width="3.125" customWidth="1"/>
+    <col min="41" max="47" width="2.625" customWidth="1"/>
+    <col min="48" max="48" width="2.125" customWidth="1"/>
+    <col min="49" max="52" width="3.125" customWidth="1"/>
+    <col min="53" max="53" width="4.125" customWidth="1"/>
+    <col min="54" max="54" width="3.125" customWidth="1"/>
     <col min="55" max="55" width="4.125" customWidth="1"/>
     <col min="56" max="56" width="3.125" customWidth="1"/>
-    <col min="57" max="57" width="2.625" customWidth="1"/>
+    <col min="57" max="57" width="1.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="15" customHeight="1">
+    <row r="1" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1756,7 +1773,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1810,7 +1827,7 @@
       <c r="BD1" s="1"/>
       <c r="BE1" s="1"/>
     </row>
-    <row r="2" spans="1:57" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1821,7 +1838,7 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1865,60 +1882,60 @@
       <c r="AT2" s="1"/>
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
-      <c r="AW2" s="18" t="s">
+      <c r="AW2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="3">
+      <c r="AX2" s="55"/>
+      <c r="AY2" s="2">
         <f ca="1">VALUE(TEXT(TODAY(),"yyyy"))-2018</f>
         <v>5</v>
       </c>
-      <c r="AZ2" s="17" t="s">
+      <c r="AZ2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="BA2" s="3">
+      <c r="BA2" s="2">
         <f ca="1">VALUE(TEXT(TODAY(),"mm"))</f>
-        <v>3</v>
-      </c>
-      <c r="BB2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="BC2" s="3">
+      <c r="BB2" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC2" s="2">
         <f ca="1">VALUE(TEXT(TODAY(),"dd"))</f>
-        <v>10</v>
-      </c>
-      <c r="BD2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="BD2" s="16" t="s">
         <v>11</v>
       </c>
       <c r="BE2" s="1"/>
     </row>
-    <row r="3" spans="1:57" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="4" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="Y3" s="1"/>
@@ -1955,8 +1972,8 @@
       <c r="BD3" s="1"/>
       <c r="BE3" s="1"/>
     </row>
-    <row r="4" spans="1:57" ht="15" customHeight="1">
-      <c r="E4" s="2"/>
+    <row r="4" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -2010,122 +2027,122 @@
       <c r="BD4" s="1"/>
       <c r="BE4" s="1"/>
     </row>
-    <row r="5" spans="1:57" ht="19.5" customHeight="1">
-      <c r="E5" s="5"/>
-      <c r="F5" s="20" t="s">
+    <row r="5" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E5" s="4"/>
+      <c r="F5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="20"/>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="20"/>
-      <c r="AJ5" s="20"/>
-      <c r="AK5" s="20"/>
-      <c r="AL5" s="20"/>
-      <c r="AM5" s="20"/>
-      <c r="AN5" s="20"/>
-      <c r="AO5" s="20"/>
-      <c r="AP5" s="20"/>
-      <c r="AQ5" s="20"/>
-      <c r="AR5" s="20"/>
-      <c r="AS5" s="20"/>
-      <c r="AT5" s="20"/>
-      <c r="AU5" s="20"/>
-      <c r="AV5" s="20"/>
-      <c r="AW5" s="20"/>
-      <c r="AX5" s="20"/>
-      <c r="AY5" s="20"/>
-      <c r="AZ5" s="20"/>
-      <c r="BA5" s="20"/>
-      <c r="BB5" s="20"/>
-      <c r="BC5" s="20"/>
-      <c r="BD5" s="20"/>
-      <c r="BE5" s="20"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="57"/>
+      <c r="Z5" s="57"/>
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="57"/>
+      <c r="AC5" s="57"/>
+      <c r="AD5" s="57"/>
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="57"/>
+      <c r="AG5" s="57"/>
+      <c r="AH5" s="57"/>
+      <c r="AI5" s="57"/>
+      <c r="AJ5" s="57"/>
+      <c r="AK5" s="57"/>
+      <c r="AL5" s="57"/>
+      <c r="AM5" s="57"/>
+      <c r="AN5" s="57"/>
+      <c r="AO5" s="57"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="57"/>
+      <c r="AR5" s="57"/>
+      <c r="AS5" s="57"/>
+      <c r="AT5" s="57"/>
+      <c r="AU5" s="57"/>
+      <c r="AV5" s="57"/>
+      <c r="AW5" s="57"/>
+      <c r="AX5" s="57"/>
+      <c r="AY5" s="57"/>
+      <c r="AZ5" s="57"/>
+      <c r="BA5" s="57"/>
+      <c r="BB5" s="57"/>
+      <c r="BC5" s="57"/>
+      <c r="BD5" s="57"/>
+      <c r="BE5" s="57"/>
     </row>
-    <row r="6" spans="1:57" ht="19.5" customHeight="1">
-      <c r="E6" s="2"/>
-      <c r="F6" s="21" t="s">
+    <row r="6" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E6" s="1"/>
+      <c r="F6" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="21"/>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="21"/>
-      <c r="AM6" s="21"/>
-      <c r="AN6" s="21"/>
-      <c r="AO6" s="21"/>
-      <c r="AP6" s="21"/>
-      <c r="AQ6" s="21"/>
-      <c r="AR6" s="21"/>
-      <c r="AS6" s="21"/>
-      <c r="AT6" s="21"/>
-      <c r="AU6" s="21"/>
-      <c r="AV6" s="21"/>
-      <c r="AW6" s="21"/>
-      <c r="AX6" s="21"/>
-      <c r="AY6" s="21"/>
-      <c r="AZ6" s="21"/>
-      <c r="BA6" s="21"/>
-      <c r="BB6" s="21"/>
-      <c r="BC6" s="21"/>
-      <c r="BD6" s="21"/>
-      <c r="BE6" s="21"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="58"/>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="58"/>
+      <c r="AE6" s="58"/>
+      <c r="AF6" s="58"/>
+      <c r="AG6" s="58"/>
+      <c r="AH6" s="58"/>
+      <c r="AI6" s="58"/>
+      <c r="AJ6" s="58"/>
+      <c r="AK6" s="58"/>
+      <c r="AL6" s="58"/>
+      <c r="AM6" s="58"/>
+      <c r="AN6" s="58"/>
+      <c r="AO6" s="58"/>
+      <c r="AP6" s="58"/>
+      <c r="AQ6" s="58"/>
+      <c r="AR6" s="58"/>
+      <c r="AS6" s="58"/>
+      <c r="AT6" s="58"/>
+      <c r="AU6" s="58"/>
+      <c r="AV6" s="58"/>
+      <c r="AW6" s="58"/>
+      <c r="AX6" s="58"/>
+      <c r="AY6" s="58"/>
+      <c r="AZ6" s="58"/>
+      <c r="BA6" s="58"/>
+      <c r="BB6" s="58"/>
+      <c r="BC6" s="58"/>
+      <c r="BD6" s="58"/>
+      <c r="BE6" s="58"/>
     </row>
-    <row r="7" spans="1:57" ht="15" customHeight="1">
-      <c r="E7" s="2"/>
+    <row r="7" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -2179,8 +2196,8 @@
       <c r="BD7" s="1"/>
       <c r="BE7" s="1"/>
     </row>
-    <row r="8" spans="1:57" ht="18" customHeight="1">
-      <c r="E8" s="2"/>
+    <row r="8" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E8" s="1"/>
       <c r="F8" s="22" t="s">
         <v>15</v>
       </c>
@@ -2202,18 +2219,18 @@
         <v>16</v>
       </c>
       <c r="V8" s="23"/>
-      <c r="W8" s="28"/>
+      <c r="W8" s="59"/>
       <c r="X8" s="22" t="s">
         <v>17</v>
       </c>
       <c r="Y8" s="24"/>
-      <c r="Z8" s="32" t="s">
+      <c r="Z8" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="34"/>
+      <c r="AA8" s="64"/>
+      <c r="AB8" s="64"/>
+      <c r="AC8" s="64"/>
+      <c r="AD8" s="65"/>
       <c r="AE8" s="22" t="s">
         <v>19</v>
       </c>
@@ -2252,8 +2269,8 @@
       <c r="BD8" s="23"/>
       <c r="BE8" s="24"/>
     </row>
-    <row r="9" spans="1:57" ht="18" customHeight="1">
-      <c r="E9" s="2"/>
+    <row r="9" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E9" s="1"/>
       <c r="F9" s="25"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
@@ -2269,9 +2286,9 @@
       <c r="R9" s="26"/>
       <c r="S9" s="26"/>
       <c r="T9" s="27"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="31"/>
+      <c r="U9" s="60"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="62"/>
       <c r="X9" s="25"/>
       <c r="Y9" s="27"/>
       <c r="Z9" s="25" t="s">
@@ -2293,25 +2310,25 @@
       </c>
       <c r="AM9" s="26"/>
       <c r="AN9" s="27"/>
-      <c r="AO9" s="6" t="s">
+      <c r="AO9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AP9" s="6" t="s">
+      <c r="AP9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AQ9" s="6" t="s">
+      <c r="AQ9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AR9" s="6" t="s">
+      <c r="AR9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AS9" s="6" t="s">
+      <c r="AS9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AT9" s="7" t="s">
+      <c r="AT9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AU9" s="6" t="s">
+      <c r="AU9" s="5" t="s">
         <v>32</v>
       </c>
       <c r="AV9" s="25"/>
@@ -2325,648 +2342,648 @@
       <c r="BD9" s="26"/>
       <c r="BE9" s="27"/>
     </row>
-    <row r="10" spans="1:57" ht="27.75" customHeight="1">
-      <c r="E10" s="2"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="8">
+    <row r="10" spans="1:57" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E10" s="1"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="50"/>
+      <c r="AE10" s="7">
         <f>IF(ISERROR(Z10), 0, IF(OR(U10="", Z10="", NOT(ISNUMBER(Z10))), 0, U10*Z10))</f>
         <v>0</v>
       </c>
-      <c r="AF10" s="41" t="str">
+      <c r="AF10" s="52" t="str">
         <f>IF(AE10=0,"",INT(AE10))</f>
         <v/>
       </c>
-      <c r="AG10" s="42"/>
-      <c r="AH10" s="42"/>
-      <c r="AI10" s="42"/>
-      <c r="AJ10" s="42"/>
-      <c r="AK10" s="9" t="str">
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="53"/>
+      <c r="AJ10" s="53"/>
+      <c r="AK10" s="8" t="str">
         <f>IF(AE10=0,"",IF(AE10-INT(AE10)=0,"",AE10-INT(AE10)))</f>
         <v/>
       </c>
-      <c r="AL10" s="43"/>
-      <c r="AM10" s="44"/>
-      <c r="AN10" s="45"/>
-      <c r="AO10" s="10"/>
-      <c r="AP10" s="10"/>
-      <c r="AQ10" s="10"/>
-      <c r="AR10" s="10"/>
-      <c r="AS10" s="10"/>
-      <c r="AT10" s="10"/>
-      <c r="AU10" s="10"/>
-      <c r="AV10" s="62"/>
-      <c r="AW10" s="63"/>
-      <c r="AX10" s="63"/>
-      <c r="AY10" s="63"/>
-      <c r="AZ10" s="64"/>
-      <c r="BA10" s="46"/>
-      <c r="BB10" s="47"/>
-      <c r="BC10" s="47"/>
-      <c r="BD10" s="47"/>
-      <c r="BE10" s="48"/>
+      <c r="AL10" s="48"/>
+      <c r="AM10" s="49"/>
+      <c r="AN10" s="50"/>
+      <c r="AO10" s="9"/>
+      <c r="AP10" s="9"/>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="9"/>
+      <c r="AT10" s="9"/>
+      <c r="AU10" s="9"/>
+      <c r="AV10" s="28"/>
+      <c r="AW10" s="29"/>
+      <c r="AX10" s="29"/>
+      <c r="AY10" s="29"/>
+      <c r="AZ10" s="30"/>
+      <c r="BA10" s="19"/>
+      <c r="BB10" s="20"/>
+      <c r="BC10" s="20"/>
+      <c r="BD10" s="20"/>
+      <c r="BE10" s="21"/>
     </row>
-    <row r="11" spans="1:57" ht="27.75" customHeight="1">
-      <c r="E11" s="2"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="69"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="49"/>
-      <c r="AE11" s="8">
+    <row r="11" spans="1:57" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E11" s="1"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="7">
         <f t="shared" ref="AE11:AE19" si="0">IF(ISERROR(Z11), 0, IF(OR(U11="", Z11="", NOT(ISNUMBER(Z11))), 0, U11*Z11))</f>
         <v>0</v>
       </c>
-      <c r="AF11" s="41" t="str">
+      <c r="AF11" s="52" t="str">
         <f t="shared" ref="AF11:AF19" si="1">IF(AE11=0,"",INT(AE11))</f>
         <v/>
       </c>
-      <c r="AG11" s="42"/>
-      <c r="AH11" s="42"/>
-      <c r="AI11" s="42"/>
-      <c r="AJ11" s="42"/>
-      <c r="AK11" s="9" t="str">
+      <c r="AG11" s="53"/>
+      <c r="AH11" s="53"/>
+      <c r="AI11" s="53"/>
+      <c r="AJ11" s="53"/>
+      <c r="AK11" s="8" t="str">
         <f t="shared" ref="AK11:AK19" si="2">IF(AE11=0,"",IF(AE11-INT(AE11)=0,"",AE11-INT(AE11)))</f>
         <v/>
       </c>
-      <c r="AL11" s="43"/>
-      <c r="AM11" s="44"/>
-      <c r="AN11" s="45"/>
-      <c r="AO11" s="10"/>
-      <c r="AP11" s="10"/>
-      <c r="AQ11" s="10"/>
-      <c r="AR11" s="10"/>
-      <c r="AS11" s="10"/>
-      <c r="AT11" s="10"/>
-      <c r="AU11" s="10"/>
-      <c r="AV11" s="62"/>
-      <c r="AW11" s="63"/>
-      <c r="AX11" s="63"/>
-      <c r="AY11" s="63"/>
-      <c r="AZ11" s="64"/>
-      <c r="BA11" s="46"/>
-      <c r="BB11" s="47"/>
-      <c r="BC11" s="47"/>
-      <c r="BD11" s="47"/>
-      <c r="BE11" s="48"/>
+      <c r="AL11" s="48"/>
+      <c r="AM11" s="49"/>
+      <c r="AN11" s="50"/>
+      <c r="AO11" s="9"/>
+      <c r="AP11" s="9"/>
+      <c r="AQ11" s="9"/>
+      <c r="AR11" s="9"/>
+      <c r="AS11" s="9"/>
+      <c r="AT11" s="9"/>
+      <c r="AU11" s="9"/>
+      <c r="AV11" s="28"/>
+      <c r="AW11" s="29"/>
+      <c r="AX11" s="29"/>
+      <c r="AY11" s="29"/>
+      <c r="AZ11" s="30"/>
+      <c r="BA11" s="19"/>
+      <c r="BB11" s="20"/>
+      <c r="BC11" s="20"/>
+      <c r="BD11" s="20"/>
+      <c r="BE11" s="21"/>
     </row>
-    <row r="12" spans="1:57" ht="27.75" customHeight="1">
-      <c r="E12" s="2"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="49"/>
-      <c r="AE12" s="8">
+    <row r="12" spans="1:57" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E12" s="1"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF12" s="41" t="str">
+      <c r="AF12" s="52" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AG12" s="42"/>
-      <c r="AH12" s="42"/>
-      <c r="AI12" s="42"/>
-      <c r="AJ12" s="42"/>
-      <c r="AK12" s="9" t="str">
+      <c r="AG12" s="53"/>
+      <c r="AH12" s="53"/>
+      <c r="AI12" s="53"/>
+      <c r="AJ12" s="53"/>
+      <c r="AK12" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AL12" s="43"/>
-      <c r="AM12" s="44"/>
-      <c r="AN12" s="45"/>
-      <c r="AO12" s="10"/>
-      <c r="AP12" s="10"/>
-      <c r="AQ12" s="10"/>
-      <c r="AR12" s="10"/>
-      <c r="AS12" s="10"/>
-      <c r="AT12" s="10"/>
-      <c r="AU12" s="10"/>
-      <c r="AV12" s="62"/>
-      <c r="AW12" s="63"/>
-      <c r="AX12" s="63"/>
-      <c r="AY12" s="63"/>
-      <c r="AZ12" s="64"/>
-      <c r="BA12" s="46"/>
-      <c r="BB12" s="47"/>
-      <c r="BC12" s="47"/>
-      <c r="BD12" s="47"/>
-      <c r="BE12" s="48"/>
+      <c r="AL12" s="48"/>
+      <c r="AM12" s="49"/>
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="9"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="9"/>
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="28"/>
+      <c r="AW12" s="29"/>
+      <c r="AX12" s="29"/>
+      <c r="AY12" s="29"/>
+      <c r="AZ12" s="30"/>
+      <c r="BA12" s="19"/>
+      <c r="BB12" s="20"/>
+      <c r="BC12" s="20"/>
+      <c r="BD12" s="20"/>
+      <c r="BE12" s="21"/>
     </row>
-    <row r="13" spans="1:57" ht="27.75" customHeight="1">
-      <c r="E13" s="2"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="49"/>
-      <c r="AE13" s="8">
+    <row r="13" spans="1:57" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E13" s="1"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="50"/>
+      <c r="AE13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF13" s="41" t="str">
+      <c r="AF13" s="52" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AG13" s="42"/>
-      <c r="AH13" s="42"/>
-      <c r="AI13" s="42"/>
-      <c r="AJ13" s="42"/>
-      <c r="AK13" s="9" t="str">
+      <c r="AG13" s="53"/>
+      <c r="AH13" s="53"/>
+      <c r="AI13" s="53"/>
+      <c r="AJ13" s="53"/>
+      <c r="AK13" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AL13" s="43"/>
-      <c r="AM13" s="44"/>
-      <c r="AN13" s="45"/>
-      <c r="AO13" s="10"/>
-      <c r="AP13" s="10"/>
-      <c r="AQ13" s="10"/>
-      <c r="AR13" s="10"/>
-      <c r="AS13" s="10"/>
-      <c r="AT13" s="10"/>
-      <c r="AU13" s="10"/>
-      <c r="AV13" s="62"/>
-      <c r="AW13" s="63"/>
-      <c r="AX13" s="63"/>
-      <c r="AY13" s="63"/>
-      <c r="AZ13" s="64"/>
-      <c r="BA13" s="46"/>
-      <c r="BB13" s="47"/>
-      <c r="BC13" s="47"/>
-      <c r="BD13" s="47"/>
-      <c r="BE13" s="48"/>
+      <c r="AL13" s="48"/>
+      <c r="AM13" s="49"/>
+      <c r="AN13" s="50"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="28"/>
+      <c r="AW13" s="29"/>
+      <c r="AX13" s="29"/>
+      <c r="AY13" s="29"/>
+      <c r="AZ13" s="30"/>
+      <c r="BA13" s="19"/>
+      <c r="BB13" s="20"/>
+      <c r="BC13" s="20"/>
+      <c r="BD13" s="20"/>
+      <c r="BE13" s="21"/>
     </row>
-    <row r="14" spans="1:57" ht="27.75" customHeight="1">
-      <c r="E14" s="2"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="69"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="39"/>
-      <c r="AB14" s="39"/>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="8">
+    <row r="14" spans="1:57" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E14" s="1"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="50"/>
+      <c r="AE14" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF14" s="41" t="str">
+      <c r="AF14" s="52" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AG14" s="42"/>
-      <c r="AH14" s="42"/>
-      <c r="AI14" s="42"/>
-      <c r="AJ14" s="42"/>
-      <c r="AK14" s="9" t="str">
+      <c r="AG14" s="53"/>
+      <c r="AH14" s="53"/>
+      <c r="AI14" s="53"/>
+      <c r="AJ14" s="53"/>
+      <c r="AK14" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AL14" s="43"/>
-      <c r="AM14" s="44"/>
-      <c r="AN14" s="45"/>
-      <c r="AO14" s="10"/>
-      <c r="AP14" s="10"/>
-      <c r="AQ14" s="10"/>
-      <c r="AR14" s="10"/>
-      <c r="AS14" s="10"/>
-      <c r="AT14" s="10"/>
-      <c r="AU14" s="10"/>
-      <c r="AV14" s="62"/>
-      <c r="AW14" s="63"/>
-      <c r="AX14" s="63"/>
-      <c r="AY14" s="63"/>
-      <c r="AZ14" s="64"/>
-      <c r="BA14" s="46"/>
-      <c r="BB14" s="47"/>
-      <c r="BC14" s="47"/>
-      <c r="BD14" s="47"/>
-      <c r="BE14" s="48"/>
+      <c r="AL14" s="48"/>
+      <c r="AM14" s="49"/>
+      <c r="AN14" s="50"/>
+      <c r="AO14" s="9"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="9"/>
+      <c r="AR14" s="9"/>
+      <c r="AS14" s="9"/>
+      <c r="AT14" s="9"/>
+      <c r="AU14" s="9"/>
+      <c r="AV14" s="28"/>
+      <c r="AW14" s="29"/>
+      <c r="AX14" s="29"/>
+      <c r="AY14" s="29"/>
+      <c r="AZ14" s="30"/>
+      <c r="BA14" s="19"/>
+      <c r="BB14" s="20"/>
+      <c r="BC14" s="20"/>
+      <c r="BD14" s="20"/>
+      <c r="BE14" s="21"/>
     </row>
-    <row r="15" spans="1:57" ht="27.75" customHeight="1">
-      <c r="E15" s="2"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="49"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="69"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="39"/>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="49"/>
-      <c r="AE15" s="8">
+    <row r="15" spans="1:57" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E15" s="1"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="49"/>
+      <c r="AC15" s="49"/>
+      <c r="AD15" s="50"/>
+      <c r="AE15" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="41" t="str">
+      <c r="AF15" s="52" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AG15" s="42"/>
-      <c r="AH15" s="42"/>
-      <c r="AI15" s="42"/>
-      <c r="AJ15" s="42"/>
-      <c r="AK15" s="9" t="str">
+      <c r="AG15" s="53"/>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="53"/>
+      <c r="AJ15" s="53"/>
+      <c r="AK15" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AL15" s="43"/>
-      <c r="AM15" s="44"/>
-      <c r="AN15" s="45"/>
-      <c r="AO15" s="10"/>
-      <c r="AP15" s="10"/>
-      <c r="AQ15" s="10"/>
-      <c r="AR15" s="10"/>
-      <c r="AS15" s="10"/>
-      <c r="AT15" s="10"/>
-      <c r="AU15" s="10"/>
-      <c r="AV15" s="62"/>
-      <c r="AW15" s="63"/>
-      <c r="AX15" s="63"/>
-      <c r="AY15" s="63"/>
-      <c r="AZ15" s="64"/>
-      <c r="BA15" s="46"/>
-      <c r="BB15" s="47"/>
-      <c r="BC15" s="47"/>
-      <c r="BD15" s="47"/>
-      <c r="BE15" s="48"/>
+      <c r="AL15" s="48"/>
+      <c r="AM15" s="49"/>
+      <c r="AN15" s="50"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="9"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="9"/>
+      <c r="AT15" s="9"/>
+      <c r="AU15" s="9"/>
+      <c r="AV15" s="28"/>
+      <c r="AW15" s="29"/>
+      <c r="AX15" s="29"/>
+      <c r="AY15" s="29"/>
+      <c r="AZ15" s="30"/>
+      <c r="BA15" s="19"/>
+      <c r="BB15" s="20"/>
+      <c r="BC15" s="20"/>
+      <c r="BD15" s="20"/>
+      <c r="BE15" s="21"/>
     </row>
-    <row r="16" spans="1:57" ht="27.75" customHeight="1">
-      <c r="E16" s="2"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="49"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="49"/>
-      <c r="AE16" s="8">
+    <row r="16" spans="1:57" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E16" s="1"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="51"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="49"/>
+      <c r="AB16" s="49"/>
+      <c r="AC16" s="49"/>
+      <c r="AD16" s="50"/>
+      <c r="AE16" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF16" s="41" t="str">
+      <c r="AF16" s="52" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AG16" s="42"/>
-      <c r="AH16" s="42"/>
-      <c r="AI16" s="42"/>
-      <c r="AJ16" s="42"/>
-      <c r="AK16" s="9" t="str">
+      <c r="AG16" s="53"/>
+      <c r="AH16" s="53"/>
+      <c r="AI16" s="53"/>
+      <c r="AJ16" s="53"/>
+      <c r="AK16" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AL16" s="43"/>
-      <c r="AM16" s="44"/>
-      <c r="AN16" s="45"/>
-      <c r="AO16" s="10"/>
-      <c r="AP16" s="10"/>
-      <c r="AQ16" s="10"/>
-      <c r="AR16" s="10"/>
-      <c r="AS16" s="10"/>
-      <c r="AT16" s="10"/>
-      <c r="AU16" s="10"/>
-      <c r="AV16" s="62"/>
-      <c r="AW16" s="63"/>
-      <c r="AX16" s="63"/>
-      <c r="AY16" s="63"/>
-      <c r="AZ16" s="64"/>
-      <c r="BA16" s="46"/>
-      <c r="BB16" s="47"/>
-      <c r="BC16" s="47"/>
-      <c r="BD16" s="47"/>
-      <c r="BE16" s="48"/>
+      <c r="AL16" s="48"/>
+      <c r="AM16" s="49"/>
+      <c r="AN16" s="50"/>
+      <c r="AO16" s="9"/>
+      <c r="AP16" s="9"/>
+      <c r="AQ16" s="9"/>
+      <c r="AR16" s="9"/>
+      <c r="AS16" s="9"/>
+      <c r="AT16" s="9"/>
+      <c r="AU16" s="9"/>
+      <c r="AV16" s="28"/>
+      <c r="AW16" s="29"/>
+      <c r="AX16" s="29"/>
+      <c r="AY16" s="29"/>
+      <c r="AZ16" s="30"/>
+      <c r="BA16" s="19"/>
+      <c r="BB16" s="20"/>
+      <c r="BC16" s="20"/>
+      <c r="BD16" s="20"/>
+      <c r="BE16" s="21"/>
     </row>
-    <row r="17" spans="5:57" ht="27.75" customHeight="1">
-      <c r="E17" s="2"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="69"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="39"/>
-      <c r="AB17" s="39"/>
-      <c r="AC17" s="39"/>
-      <c r="AD17" s="49"/>
-      <c r="AE17" s="8">
+    <row r="17" spans="5:57" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E17" s="1"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="49"/>
+      <c r="AD17" s="50"/>
+      <c r="AE17" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF17" s="41" t="str">
+      <c r="AF17" s="52" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AG17" s="42"/>
-      <c r="AH17" s="42"/>
-      <c r="AI17" s="42"/>
-      <c r="AJ17" s="42"/>
-      <c r="AK17" s="9" t="str">
+      <c r="AG17" s="53"/>
+      <c r="AH17" s="53"/>
+      <c r="AI17" s="53"/>
+      <c r="AJ17" s="53"/>
+      <c r="AK17" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AL17" s="43"/>
-      <c r="AM17" s="44"/>
-      <c r="AN17" s="45"/>
-      <c r="AO17" s="10"/>
-      <c r="AP17" s="10"/>
-      <c r="AQ17" s="10"/>
-      <c r="AR17" s="10"/>
-      <c r="AS17" s="10"/>
-      <c r="AT17" s="10"/>
-      <c r="AU17" s="10"/>
-      <c r="AV17" s="62"/>
-      <c r="AW17" s="63"/>
-      <c r="AX17" s="63"/>
-      <c r="AY17" s="63"/>
-      <c r="AZ17" s="64"/>
-      <c r="BA17" s="46"/>
-      <c r="BB17" s="47"/>
-      <c r="BC17" s="47"/>
-      <c r="BD17" s="47"/>
-      <c r="BE17" s="48"/>
+      <c r="AL17" s="48"/>
+      <c r="AM17" s="49"/>
+      <c r="AN17" s="50"/>
+      <c r="AO17" s="9"/>
+      <c r="AP17" s="9"/>
+      <c r="AQ17" s="9"/>
+      <c r="AR17" s="9"/>
+      <c r="AS17" s="9"/>
+      <c r="AT17" s="9"/>
+      <c r="AU17" s="9"/>
+      <c r="AV17" s="28"/>
+      <c r="AW17" s="29"/>
+      <c r="AX17" s="29"/>
+      <c r="AY17" s="29"/>
+      <c r="AZ17" s="30"/>
+      <c r="BA17" s="19"/>
+      <c r="BB17" s="20"/>
+      <c r="BC17" s="20"/>
+      <c r="BD17" s="20"/>
+      <c r="BE17" s="21"/>
     </row>
-    <row r="18" spans="5:57" ht="27.75" customHeight="1">
-      <c r="E18" s="2"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="69"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="39"/>
-      <c r="AB18" s="39"/>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="49"/>
-      <c r="AE18" s="8">
+    <row r="18" spans="5:57" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E18" s="1"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="49"/>
+      <c r="AC18" s="49"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF18" s="41" t="str">
+      <c r="AF18" s="52" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AG18" s="42"/>
-      <c r="AH18" s="42"/>
-      <c r="AI18" s="42"/>
-      <c r="AJ18" s="42"/>
-      <c r="AK18" s="9" t="str">
+      <c r="AG18" s="53"/>
+      <c r="AH18" s="53"/>
+      <c r="AI18" s="53"/>
+      <c r="AJ18" s="53"/>
+      <c r="AK18" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AL18" s="43"/>
-      <c r="AM18" s="44"/>
-      <c r="AN18" s="45"/>
-      <c r="AO18" s="10"/>
-      <c r="AP18" s="10"/>
-      <c r="AQ18" s="10"/>
-      <c r="AR18" s="10"/>
-      <c r="AS18" s="10"/>
-      <c r="AT18" s="10"/>
-      <c r="AU18" s="10"/>
-      <c r="AV18" s="62"/>
-      <c r="AW18" s="63"/>
-      <c r="AX18" s="63"/>
-      <c r="AY18" s="63"/>
-      <c r="AZ18" s="64"/>
-      <c r="BA18" s="46"/>
-      <c r="BB18" s="47"/>
-      <c r="BC18" s="47"/>
-      <c r="BD18" s="47"/>
-      <c r="BE18" s="48"/>
+      <c r="AL18" s="48"/>
+      <c r="AM18" s="49"/>
+      <c r="AN18" s="50"/>
+      <c r="AO18" s="9"/>
+      <c r="AP18" s="9"/>
+      <c r="AQ18" s="9"/>
+      <c r="AR18" s="9"/>
+      <c r="AS18" s="9"/>
+      <c r="AT18" s="9"/>
+      <c r="AU18" s="9"/>
+      <c r="AV18" s="28"/>
+      <c r="AW18" s="29"/>
+      <c r="AX18" s="29"/>
+      <c r="AY18" s="29"/>
+      <c r="AZ18" s="30"/>
+      <c r="BA18" s="19"/>
+      <c r="BB18" s="20"/>
+      <c r="BC18" s="20"/>
+      <c r="BD18" s="20"/>
+      <c r="BE18" s="21"/>
     </row>
-    <row r="19" spans="5:57" ht="27.75" customHeight="1">
-      <c r="E19" s="2"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="69"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="39"/>
-      <c r="AB19" s="39"/>
-      <c r="AC19" s="39"/>
-      <c r="AD19" s="49"/>
-      <c r="AE19" s="8">
+    <row r="19" spans="5:57" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E19" s="1"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="49"/>
+      <c r="AB19" s="49"/>
+      <c r="AC19" s="49"/>
+      <c r="AD19" s="50"/>
+      <c r="AE19" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF19" s="41" t="str">
+      <c r="AF19" s="52" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AG19" s="42"/>
-      <c r="AH19" s="42"/>
-      <c r="AI19" s="42"/>
-      <c r="AJ19" s="42"/>
-      <c r="AK19" s="9" t="str">
+      <c r="AG19" s="53"/>
+      <c r="AH19" s="53"/>
+      <c r="AI19" s="53"/>
+      <c r="AJ19" s="53"/>
+      <c r="AK19" s="8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AL19" s="43"/>
-      <c r="AM19" s="44"/>
-      <c r="AN19" s="45"/>
-      <c r="AO19" s="10"/>
-      <c r="AP19" s="10"/>
-      <c r="AQ19" s="10"/>
-      <c r="AR19" s="10"/>
-      <c r="AS19" s="10"/>
-      <c r="AT19" s="10"/>
-      <c r="AU19" s="10"/>
-      <c r="AV19" s="62"/>
-      <c r="AW19" s="63"/>
-      <c r="AX19" s="63"/>
-      <c r="AY19" s="63"/>
-      <c r="AZ19" s="64"/>
-      <c r="BA19" s="46"/>
-      <c r="BB19" s="47"/>
-      <c r="BC19" s="47"/>
-      <c r="BD19" s="47"/>
-      <c r="BE19" s="48"/>
+      <c r="AL19" s="48"/>
+      <c r="AM19" s="49"/>
+      <c r="AN19" s="50"/>
+      <c r="AO19" s="9"/>
+      <c r="AP19" s="9"/>
+      <c r="AQ19" s="9"/>
+      <c r="AR19" s="9"/>
+      <c r="AS19" s="9"/>
+      <c r="AT19" s="9"/>
+      <c r="AU19" s="9"/>
+      <c r="AV19" s="28"/>
+      <c r="AW19" s="29"/>
+      <c r="AX19" s="29"/>
+      <c r="AY19" s="29"/>
+      <c r="AZ19" s="30"/>
+      <c r="BA19" s="19"/>
+      <c r="BB19" s="20"/>
+      <c r="BC19" s="20"/>
+      <c r="BD19" s="20"/>
+      <c r="BE19" s="21"/>
     </row>
-    <row r="20" spans="5:57" ht="24.75" customHeight="1">
-      <c r="E20" s="2"/>
+    <row r="20" spans="5:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -2994,19 +3011,19 @@
       <c r="AB20" s="23"/>
       <c r="AC20" s="23"/>
       <c r="AD20" s="24"/>
-      <c r="AE20" s="11">
+      <c r="AE20" s="10">
         <f>SUM(AE10:AE19)</f>
         <v>0</v>
       </c>
-      <c r="AF20" s="55" t="str">
+      <c r="AF20" s="36" t="str">
         <f>IF(AE20=0, "", INT(AE20))</f>
         <v/>
       </c>
-      <c r="AG20" s="56"/>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="56"/>
-      <c r="AJ20" s="56"/>
-      <c r="AK20" s="12" t="str">
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="37"/>
+      <c r="AI20" s="37"/>
+      <c r="AJ20" s="37"/>
+      <c r="AK20" s="11" t="str">
         <f>IF(OR(AE20=0, AE20=AF20), "", AE20-INT(AE20))</f>
         <v/>
       </c>
@@ -3031,7 +3048,7 @@
       <c r="BD20" s="1"/>
       <c r="BE20" s="1"/>
     </row>
-    <row r="21" spans="5:57" ht="24.75" customHeight="1">
+    <row r="21" spans="5:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -3053,55 +3070,55 @@
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
-      <c r="Z21" s="57" t="s">
+      <c r="Z21" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="AA21" s="58"/>
-      <c r="AB21" s="58"/>
-      <c r="AC21" s="58"/>
-      <c r="AD21" s="13" t="s">
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="AE21" s="11">
+      <c r="AE21" s="10">
         <f>IF(AD21&lt;&gt;A1, 0, AE20*0.1)</f>
         <v>0</v>
       </c>
-      <c r="AF21" s="55" t="str">
+      <c r="AF21" s="36" t="str">
         <f>IF(OR(AD21&lt;&gt;A1, AE20=0), "", INT(AE21))</f>
         <v/>
       </c>
-      <c r="AG21" s="56"/>
-      <c r="AH21" s="56"/>
-      <c r="AI21" s="56"/>
-      <c r="AJ21" s="56"/>
-      <c r="AK21" s="12" t="str">
+      <c r="AG21" s="37"/>
+      <c r="AH21" s="37"/>
+      <c r="AI21" s="37"/>
+      <c r="AJ21" s="37"/>
+      <c r="AK21" s="11" t="str">
         <f>IF(OR(AD21&lt;&gt;A1, AE20=0, AE21=AF21), "", AE21-INT(AE21))</f>
         <v/>
       </c>
       <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
-      <c r="AN21" s="53" t="s">
+      <c r="AN21" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="AO21" s="53"/>
-      <c r="AP21" s="53"/>
-      <c r="AQ21" s="53"/>
-      <c r="AR21" s="53"/>
-      <c r="AS21" s="53"/>
-      <c r="AT21" s="53"/>
-      <c r="AU21" s="53"/>
-      <c r="AV21" s="53"/>
-      <c r="AW21" s="53"/>
-      <c r="AX21" s="53"/>
-      <c r="AY21" s="53"/>
-      <c r="AZ21" s="53"/>
-      <c r="BA21" s="53"/>
-      <c r="BB21" s="53"/>
-      <c r="BC21" s="53"/>
-      <c r="BD21" s="53"/>
-      <c r="BE21" s="53"/>
+      <c r="AO21" s="34"/>
+      <c r="AP21" s="34"/>
+      <c r="AQ21" s="34"/>
+      <c r="AR21" s="34"/>
+      <c r="AS21" s="34"/>
+      <c r="AT21" s="34"/>
+      <c r="AU21" s="34"/>
+      <c r="AV21" s="34"/>
+      <c r="AW21" s="34"/>
+      <c r="AX21" s="34"/>
+      <c r="AY21" s="34"/>
+      <c r="AZ21" s="34"/>
+      <c r="BA21" s="34"/>
+      <c r="BB21" s="34"/>
+      <c r="BC21" s="34"/>
+      <c r="BD21" s="34"/>
+      <c r="BE21" s="34"/>
     </row>
-    <row r="22" spans="5:57" ht="24.75" customHeight="1">
+    <row r="22" spans="5:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -3130,37 +3147,37 @@
       <c r="AB22" s="23"/>
       <c r="AC22" s="23"/>
       <c r="AD22" s="24"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="59"/>
-      <c r="AG22" s="60"/>
-      <c r="AH22" s="60"/>
-      <c r="AI22" s="60"/>
-      <c r="AJ22" s="60"/>
-      <c r="AK22" s="14"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="40"/>
+      <c r="AG22" s="41"/>
+      <c r="AH22" s="41"/>
+      <c r="AI22" s="41"/>
+      <c r="AJ22" s="41"/>
+      <c r="AK22" s="13"/>
       <c r="AL22" s="1"/>
       <c r="AM22" s="1"/>
-      <c r="AN22" s="61" t="s">
+      <c r="AN22" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="AO22" s="61"/>
-      <c r="AP22" s="61"/>
-      <c r="AQ22" s="61"/>
-      <c r="AR22" s="61"/>
-      <c r="AS22" s="61"/>
-      <c r="AT22" s="61"/>
-      <c r="AU22" s="61"/>
-      <c r="AV22" s="61"/>
-      <c r="AW22" s="61"/>
-      <c r="AX22" s="61"/>
-      <c r="AY22" s="61"/>
-      <c r="AZ22" s="61"/>
-      <c r="BA22" s="61"/>
-      <c r="BB22" s="61"/>
-      <c r="BC22" s="61"/>
-      <c r="BD22" s="61"/>
-      <c r="BE22" s="61"/>
+      <c r="AO22" s="42"/>
+      <c r="AP22" s="42"/>
+      <c r="AQ22" s="42"/>
+      <c r="AR22" s="42"/>
+      <c r="AS22" s="42"/>
+      <c r="AT22" s="42"/>
+      <c r="AU22" s="42"/>
+      <c r="AV22" s="42"/>
+      <c r="AW22" s="42"/>
+      <c r="AX22" s="42"/>
+      <c r="AY22" s="42"/>
+      <c r="AZ22" s="42"/>
+      <c r="BA22" s="42"/>
+      <c r="BB22" s="42"/>
+      <c r="BC22" s="42"/>
+      <c r="BD22" s="42"/>
+      <c r="BE22" s="42"/>
     </row>
-    <row r="23" spans="5:57" ht="24.75" customHeight="1">
+    <row r="23" spans="5:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -3182,55 +3199,55 @@
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
-      <c r="Z23" s="57" t="s">
+      <c r="Z23" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="AA23" s="58"/>
-      <c r="AB23" s="58"/>
-      <c r="AC23" s="58"/>
-      <c r="AD23" s="65"/>
-      <c r="AE23" s="15">
+      <c r="AA23" s="39"/>
+      <c r="AB23" s="39"/>
+      <c r="AC23" s="39"/>
+      <c r="AD23" s="43"/>
+      <c r="AE23" s="14">
         <f>AE20+AE21+AF22</f>
         <v>0</v>
       </c>
-      <c r="AF23" s="55" t="str">
+      <c r="AF23" s="36" t="str">
         <f>IF(AE23=0, "", IF(AF24=D1, INT(AE23), IF(AF24=D2, INT(AE23+0.5), IF(AF24=D3,CEILING(AE23, 1),INT(AE23)))))</f>
         <v/>
       </c>
-      <c r="AG23" s="56"/>
-      <c r="AH23" s="56"/>
-      <c r="AI23" s="56"/>
-      <c r="AJ23" s="56"/>
-      <c r="AK23" s="9" t="str">
+      <c r="AG23" s="37"/>
+      <c r="AH23" s="37"/>
+      <c r="AI23" s="37"/>
+      <c r="AJ23" s="37"/>
+      <c r="AK23" s="8" t="str">
         <f>IF(OR(AF24&lt;&gt;"", AE23=0), "", AE23-INT(AE23))</f>
         <v/>
       </c>
       <c r="AL23" s="1"/>
       <c r="AM23" s="1"/>
-      <c r="AN23" s="66" t="s">
+      <c r="AN23" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="AO23" s="66"/>
-      <c r="AP23" s="66"/>
-      <c r="AQ23" s="66"/>
-      <c r="AR23" s="66"/>
-      <c r="AS23" s="66"/>
-      <c r="AT23" s="66"/>
-      <c r="AU23" s="66"/>
-      <c r="AV23" s="66"/>
-      <c r="AW23" s="66"/>
-      <c r="AX23" s="67">
+      <c r="AO23" s="44"/>
+      <c r="AP23" s="44"/>
+      <c r="AQ23" s="44"/>
+      <c r="AR23" s="44"/>
+      <c r="AS23" s="44"/>
+      <c r="AT23" s="44"/>
+      <c r="AU23" s="44"/>
+      <c r="AV23" s="44"/>
+      <c r="AW23" s="44"/>
+      <c r="AX23" s="18">
         <v>999999</v>
       </c>
-      <c r="AY23" s="67"/>
-      <c r="AZ23" s="67"/>
-      <c r="BA23" s="67"/>
-      <c r="BB23" s="67"/>
-      <c r="BC23" s="67"/>
-      <c r="BD23" s="67"/>
-      <c r="BE23" s="67"/>
+      <c r="AY23" s="18"/>
+      <c r="AZ23" s="18"/>
+      <c r="BA23" s="18"/>
+      <c r="BB23" s="18"/>
+      <c r="BC23" s="18"/>
+      <c r="BD23" s="18"/>
+      <c r="BE23" s="18"/>
     </row>
-    <row r="24" spans="5:57" ht="24.75" customHeight="1">
+    <row r="24" spans="5:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -3252,51 +3269,51 @@
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
-      <c r="Z24" s="50" t="str">
+      <c r="Z24" s="31" t="str">
         <f>IF(AF24="", "小数点丸めなし", "小数点以下")</f>
         <v>小数点以下</v>
       </c>
-      <c r="AA24" s="50"/>
-      <c r="AB24" s="50"/>
-      <c r="AC24" s="50"/>
-      <c r="AD24" s="50"/>
-      <c r="AE24" s="16"/>
-      <c r="AF24" s="51" t="s">
+      <c r="AA24" s="31"/>
+      <c r="AB24" s="31"/>
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="31"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="AG24" s="51"/>
-      <c r="AH24" s="51"/>
-      <c r="AI24" s="51"/>
-      <c r="AJ24" s="51"/>
-      <c r="AK24" s="2"/>
+      <c r="AG24" s="32"/>
+      <c r="AH24" s="32"/>
+      <c r="AI24" s="32"/>
+      <c r="AJ24" s="32"/>
+      <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
       <c r="AM24" s="1"/>
-      <c r="AN24" s="52" t="s">
+      <c r="AN24" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="AO24" s="52"/>
-      <c r="AP24" s="52"/>
-      <c r="AQ24" s="52"/>
-      <c r="AR24" s="52"/>
-      <c r="AS24" s="53" t="s">
+      <c r="AO24" s="33"/>
+      <c r="AP24" s="33"/>
+      <c r="AQ24" s="33"/>
+      <c r="AR24" s="33"/>
+      <c r="AS24" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AT24" s="53"/>
-      <c r="AU24" s="53"/>
-      <c r="AV24" s="53"/>
-      <c r="AW24" s="53"/>
-      <c r="AX24" s="53"/>
-      <c r="AY24" s="53"/>
-      <c r="AZ24" s="53"/>
-      <c r="BA24" s="53"/>
-      <c r="BB24" s="53"/>
-      <c r="BC24" s="54" t="s">
+      <c r="AT24" s="34"/>
+      <c r="AU24" s="34"/>
+      <c r="AV24" s="34"/>
+      <c r="AW24" s="34"/>
+      <c r="AX24" s="34"/>
+      <c r="AY24" s="34"/>
+      <c r="AZ24" s="34"/>
+      <c r="BA24" s="34"/>
+      <c r="BB24" s="34"/>
+      <c r="BC24" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="BD24" s="54"/>
-      <c r="BE24" s="54"/>
+      <c r="BD24" s="35"/>
+      <c r="BE24" s="35"/>
     </row>
-    <row r="25" spans="5:57" ht="24.75" customHeight="1">
+    <row r="25" spans="5:57" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -3332,128 +3349,36 @@
       <c r="AK25" s="1"/>
       <c r="AL25" s="1"/>
       <c r="AM25" s="1"/>
-      <c r="AN25" s="68" t="s">
+      <c r="AN25" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AO25" s="68"/>
-      <c r="AP25" s="68"/>
-      <c r="AQ25" s="67" t="s">
+      <c r="AO25" s="17"/>
+      <c r="AP25" s="17"/>
+      <c r="AQ25" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="AR25" s="67"/>
-      <c r="AS25" s="67"/>
-      <c r="AT25" s="67"/>
-      <c r="AU25" s="67"/>
-      <c r="AV25" s="67"/>
-      <c r="AW25" s="67"/>
-      <c r="AX25" s="68" t="s">
+      <c r="AR25" s="18"/>
+      <c r="AS25" s="18"/>
+      <c r="AT25" s="18"/>
+      <c r="AU25" s="18"/>
+      <c r="AV25" s="18"/>
+      <c r="AW25" s="18"/>
+      <c r="AX25" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AY25" s="68"/>
-      <c r="AZ25" s="67" t="s">
+      <c r="AY25" s="17"/>
+      <c r="AZ25" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="BA25" s="67"/>
-      <c r="BB25" s="67"/>
-      <c r="BC25" s="67"/>
-      <c r="BD25" s="67"/>
-      <c r="BE25" s="67"/>
+      <c r="BA25" s="18"/>
+      <c r="BB25" s="18"/>
+      <c r="BC25" s="18"/>
+      <c r="BD25" s="18"/>
+      <c r="BE25" s="18"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="116">
-    <mergeCell ref="AN25:AP25"/>
-    <mergeCell ref="AQ25:AW25"/>
-    <mergeCell ref="AX25:AY25"/>
-    <mergeCell ref="AZ25:BE25"/>
-    <mergeCell ref="BA10:BE10"/>
-    <mergeCell ref="AE8:AK9"/>
-    <mergeCell ref="AL8:AN8"/>
-    <mergeCell ref="AO8:AU8"/>
-    <mergeCell ref="BA8:BE9"/>
-    <mergeCell ref="Z9:AD9"/>
-    <mergeCell ref="AL9:AN9"/>
-    <mergeCell ref="AV15:AZ15"/>
-    <mergeCell ref="AV16:AZ16"/>
-    <mergeCell ref="Z24:AD24"/>
-    <mergeCell ref="AF24:AJ24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:BB24"/>
-    <mergeCell ref="BC24:BE24"/>
-    <mergeCell ref="Z20:AD20"/>
-    <mergeCell ref="AF20:AJ20"/>
-    <mergeCell ref="Z21:AC21"/>
-    <mergeCell ref="AF21:AJ21"/>
-    <mergeCell ref="AN21:BE21"/>
-    <mergeCell ref="Z22:AD22"/>
-    <mergeCell ref="AF22:AJ22"/>
-    <mergeCell ref="AN22:BE22"/>
-    <mergeCell ref="Z23:AD23"/>
-    <mergeCell ref="AF23:AJ23"/>
-    <mergeCell ref="AN23:AW23"/>
-    <mergeCell ref="AX23:BE23"/>
-    <mergeCell ref="F19:T19"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AD19"/>
-    <mergeCell ref="AF19:AJ19"/>
-    <mergeCell ref="AL19:AN19"/>
-    <mergeCell ref="BA19:BE19"/>
-    <mergeCell ref="F18:T18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z18:AD18"/>
-    <mergeCell ref="AF18:AJ18"/>
-    <mergeCell ref="AL18:AN18"/>
-    <mergeCell ref="BA18:BE18"/>
-    <mergeCell ref="AV18:AZ18"/>
-    <mergeCell ref="AV19:AZ19"/>
-    <mergeCell ref="F17:T17"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AD17"/>
-    <mergeCell ref="AF17:AJ17"/>
-    <mergeCell ref="AL17:AN17"/>
-    <mergeCell ref="BA17:BE17"/>
-    <mergeCell ref="F16:T16"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z16:AD16"/>
-    <mergeCell ref="AF16:AJ16"/>
-    <mergeCell ref="AL16:AN16"/>
-    <mergeCell ref="BA16:BE16"/>
-    <mergeCell ref="AV17:AZ17"/>
-    <mergeCell ref="F15:T15"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AD15"/>
-    <mergeCell ref="AF15:AJ15"/>
-    <mergeCell ref="AL15:AN15"/>
-    <mergeCell ref="BA15:BE15"/>
-    <mergeCell ref="F14:T14"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AD14"/>
-    <mergeCell ref="AF14:AJ14"/>
-    <mergeCell ref="AL14:AN14"/>
-    <mergeCell ref="AV14:AZ14"/>
-    <mergeCell ref="BA14:BE14"/>
-    <mergeCell ref="F13:T13"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AD13"/>
-    <mergeCell ref="AF13:AJ13"/>
-    <mergeCell ref="AL13:AN13"/>
-    <mergeCell ref="BA13:BE13"/>
-    <mergeCell ref="F12:T12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AD12"/>
-    <mergeCell ref="AF12:AJ12"/>
-    <mergeCell ref="AL12:AN12"/>
-    <mergeCell ref="AV12:AZ12"/>
-    <mergeCell ref="AV13:AZ13"/>
-    <mergeCell ref="BA12:BE12"/>
     <mergeCell ref="AW2:AX2"/>
     <mergeCell ref="F3:W3"/>
     <mergeCell ref="F5:BE5"/>
@@ -3478,37 +3403,129 @@
     <mergeCell ref="AV8:AZ9"/>
     <mergeCell ref="AV10:AZ10"/>
     <mergeCell ref="AV11:AZ11"/>
+    <mergeCell ref="F13:T13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AD13"/>
+    <mergeCell ref="AF13:AJ13"/>
+    <mergeCell ref="AL13:AN13"/>
+    <mergeCell ref="BA13:BE13"/>
+    <mergeCell ref="F12:T12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AD12"/>
+    <mergeCell ref="AF12:AJ12"/>
+    <mergeCell ref="AL12:AN12"/>
+    <mergeCell ref="AV12:AZ12"/>
+    <mergeCell ref="AV13:AZ13"/>
+    <mergeCell ref="BA12:BE12"/>
+    <mergeCell ref="F15:T15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AD15"/>
+    <mergeCell ref="AF15:AJ15"/>
+    <mergeCell ref="AL15:AN15"/>
+    <mergeCell ref="BA15:BE15"/>
+    <mergeCell ref="F14:T14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AD14"/>
+    <mergeCell ref="AF14:AJ14"/>
+    <mergeCell ref="AL14:AN14"/>
+    <mergeCell ref="AV14:AZ14"/>
+    <mergeCell ref="BA14:BE14"/>
+    <mergeCell ref="F17:T17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AD17"/>
+    <mergeCell ref="AF17:AJ17"/>
+    <mergeCell ref="AL17:AN17"/>
+    <mergeCell ref="BA17:BE17"/>
+    <mergeCell ref="F16:T16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="AF16:AJ16"/>
+    <mergeCell ref="AL16:AN16"/>
+    <mergeCell ref="BA16:BE16"/>
+    <mergeCell ref="AV17:AZ17"/>
+    <mergeCell ref="F19:T19"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AD19"/>
+    <mergeCell ref="AF19:AJ19"/>
+    <mergeCell ref="AL19:AN19"/>
+    <mergeCell ref="BA19:BE19"/>
+    <mergeCell ref="F18:T18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AD18"/>
+    <mergeCell ref="AF18:AJ18"/>
+    <mergeCell ref="AL18:AN18"/>
+    <mergeCell ref="BA18:BE18"/>
+    <mergeCell ref="AV18:AZ18"/>
+    <mergeCell ref="AV19:AZ19"/>
+    <mergeCell ref="Z9:AD9"/>
+    <mergeCell ref="AL9:AN9"/>
+    <mergeCell ref="AV15:AZ15"/>
+    <mergeCell ref="AV16:AZ16"/>
+    <mergeCell ref="Z24:AD24"/>
+    <mergeCell ref="AF24:AJ24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:BB24"/>
+    <mergeCell ref="BC24:BE24"/>
+    <mergeCell ref="Z20:AD20"/>
+    <mergeCell ref="AF20:AJ20"/>
+    <mergeCell ref="Z21:AC21"/>
+    <mergeCell ref="AF21:AJ21"/>
+    <mergeCell ref="AN21:BE21"/>
+    <mergeCell ref="Z22:AD22"/>
+    <mergeCell ref="AF22:AJ22"/>
+    <mergeCell ref="AN22:BE22"/>
+    <mergeCell ref="Z23:AD23"/>
+    <mergeCell ref="AF23:AJ23"/>
+    <mergeCell ref="AN23:AW23"/>
+    <mergeCell ref="AX23:BE23"/>
+    <mergeCell ref="AN25:AP25"/>
+    <mergeCell ref="AQ25:AW25"/>
+    <mergeCell ref="AX25:AY25"/>
+    <mergeCell ref="AZ25:BE25"/>
+    <mergeCell ref="BA10:BE10"/>
+    <mergeCell ref="AE8:AK9"/>
+    <mergeCell ref="AL8:AN8"/>
+    <mergeCell ref="AO8:AU8"/>
+    <mergeCell ref="BA8:BE9"/>
   </mergeCells>
   <phoneticPr fontId="18"/>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF24" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$D$1:$D$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO10:AU19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO10:AU19" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$C$1</formula1>
     </dataValidation>
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X10:Y19"/>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V19:W19 U10:U19 V10:W17 Z10:Z19">
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X10:Y19" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V19:W19 U10:U19 V10:W17 Z10:Z19" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL10:AL19 AM10:AN17 AM19:AN19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL10:AL19 AM10:AN17 AM19:AN19" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>$B$1:$B$2</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AD21">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="AD21" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>$A$1:$A$2</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="1 以上の整数を入力してください。" sqref="AY2">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="1 以上の整数を入力してください。" sqref="AY2" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="正しい年月日を入力してください。" sqref="BA10:BA19 BB19:BE19 BB10:BE17">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="正しい年月日を入力してください。" sqref="BA10:BA19 BB19:BE19 BB10:BE17" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>1</formula1>
       <formula2>2958465</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="1 ～ 31 の値を入力してください。" sqref="BC2">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="1 ～ 31 の値を入力してください。" sqref="BC2" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>1</formula1>
       <formula2>31</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="1 ～ 12 の値を入力してください。" sqref="BA2">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="1 ～ 12 の値を入力してください。" sqref="BA2" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>1</formula1>
       <formula2>12</formula2>
     </dataValidation>
